--- a/ExcludeSymbolsList.xlsx
+++ b/ExcludeSymbolsList.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\Documents\stock_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB47B24-6305-44E5-B150-8EDFC46B352C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9432D90-C7DE-4508-844B-48B6A2172192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="25695" windowHeight="14160" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
+    <workbookView xWindow="3765" yWindow="1245" windowWidth="21600" windowHeight="13740" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
   </bookViews>
   <sheets>
-    <sheet name="ExcludeSymbols" sheetId="1" r:id="rId1"/>
+    <sheet name="Exclusions" sheetId="1" r:id="rId1"/>
     <sheet name="ColumnsToSum" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcludeSymbolsList.xlsx
+++ b/ExcludeSymbolsList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\Documents\stock_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\code\stock_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9432D90-C7DE-4508-844B-48B6A2172192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E241C-90A0-4039-8B92-BB18102E3466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="1245" windowWidth="21600" windowHeight="13740" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
+    <workbookView xWindow="2940" yWindow="585" windowWidth="23820" windowHeight="13905" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclusions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ExcludeSymbols</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>Total Gain/Loss Percent</t>
+  </si>
+  <si>
+    <t>Percent Of Account</t>
+  </si>
+  <si>
+    <t>Cost Basis Total</t>
+  </si>
+  <si>
+    <t>Average Cost Basis</t>
+  </si>
+  <si>
+    <t>VYM</t>
+  </si>
+  <si>
+    <t>DLS</t>
   </si>
 </sst>
 </file>
@@ -465,10 +480,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCC010F-AF43-4C17-80F9-11DC7CE12A53}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,102 +505,112 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
-    <sortCondition ref="A2:A16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,10 +621,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F8D72-1E7A-4EDF-A0CC-B68762D2CCFC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,6 +649,21 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcludeSymbolsList.xlsx
+++ b/ExcludeSymbolsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\backup\code\stock_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E241C-90A0-4039-8B92-BB18102E3466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EF8FF7-5FF9-4154-9709-360046157069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="585" windowWidth="23820" windowHeight="13905" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
+    <workbookView xWindow="2730" yWindow="2220" windowWidth="22695" windowHeight="13980" xr2:uid="{F636D4DC-EADF-4245-B1CB-9C96FF26E68F}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclusions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>ExcludeSymbols</t>
   </si>
@@ -128,6 +128,123 @@
   </si>
   <si>
     <t>DLS</t>
+  </si>
+  <si>
+    <t>JNK</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>FDRXX**</t>
+  </si>
+  <si>
+    <t>SPAXX**</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>JEPI</t>
+  </si>
+  <si>
+    <t>JEPQ</t>
+  </si>
+  <si>
+    <t>IBDQ</t>
+  </si>
+  <si>
+    <t>IBDS</t>
+  </si>
+  <si>
+    <t>IBDT</t>
+  </si>
+  <si>
+    <t>IBDU</t>
+  </si>
+  <si>
+    <t>IBDV</t>
+  </si>
+  <si>
+    <t>IBMT</t>
+  </si>
+  <si>
+    <t>IBTG</t>
+  </si>
+  <si>
+    <t>IBTH</t>
+  </si>
+  <si>
+    <t>BSCP</t>
+  </si>
+  <si>
+    <t>IBTK</t>
+  </si>
+  <si>
+    <t>IBTI</t>
+  </si>
+  <si>
+    <t>IBTJ</t>
+  </si>
+  <si>
+    <t>IBDR</t>
+  </si>
+  <si>
+    <t>IBTL</t>
+  </si>
+  <si>
+    <t>IBDW</t>
+  </si>
+  <si>
+    <t>LRNZ</t>
+  </si>
+  <si>
+    <t>SCHD</t>
+  </si>
+  <si>
+    <t>WTAI</t>
+  </si>
+  <si>
+    <t>CHAT</t>
+  </si>
+  <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>IVV</t>
+  </si>
+  <si>
+    <t>IWM</t>
+  </si>
+  <si>
+    <t>30257M587</t>
+  </si>
+  <si>
+    <t>949907703</t>
+  </si>
+  <si>
+    <t>DFSVX</t>
+  </si>
+  <si>
+    <t>FBCGX</t>
+  </si>
+  <si>
+    <t>FSMAX</t>
+  </si>
+  <si>
+    <t>FTIHX</t>
+  </si>
+  <si>
+    <t>FXAIX</t>
+  </si>
+  <si>
+    <t>FXNAX</t>
+  </si>
+  <si>
+    <t>CORE**</t>
+  </si>
+  <si>
+    <t>VIG</t>
   </si>
 </sst>
 </file>
@@ -480,10 +597,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCC010F-AF43-4C17-80F9-11DC7CE12A53}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A28" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,122 +612,322 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A64">
+    <sortCondition ref="A2:A64"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
